--- a/vaderSentiment/vaderSentiment/comparisons.xlsx
+++ b/vaderSentiment/vaderSentiment/comparisons.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$H$1:$H$2935</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$H$1:$H$2936</definedName>
   </definedNames>
   <calcPr calcId="140000" calcMode="manual" concurrentCalc="0"/>
   <extLst>
@@ -7213,10 +7213,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:H2935"/>
+  <dimension ref="A1:H2936"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -50847,10 +50847,20 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2936" spans="1:8">
+      <c r="F2936">
+        <f>AVERAGE(F1:F2935)</f>
+        <v>4.5622044293015272E-2</v>
+      </c>
+      <c r="G2936">
+        <f>AVERAGE(G1:G2935)</f>
+        <v>4.4825212947189129E-2</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="H1:H2935">
+  <autoFilter ref="H1:H2936">
     <filterColumn colId="0">
-      <filters>
+      <filters blank="1">
         <filter val="FALSE"/>
       </filters>
     </filterColumn>
